--- a/doc/ue_gamemode.xlsx
+++ b/doc/ue_gamemode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636F68A-6D37-4D06-94D2-DC2F84BAA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E78DAF-B8F2-45FF-84E1-F916318E424F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>配置了游戏内相关的各种类信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,67 @@
   </si>
   <si>
     <t>DS的话，都可以（主要没有其他创建的时机了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;SetGameMode(URL);</t>
+  </si>
+  <si>
+    <t>新World设置GameMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UWorld::SetGameMode(const FURL&amp; InURL)</t>
+  </si>
+  <si>
+    <t>if( IsServer() &amp;&amp; !AuthorityGameMode )</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthorityGameMode = GetGameInstance()-&gt;CreateGameModeForURL(InURL, this);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有在Server模式下才创建，纯Client模式不创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGameModeBase* UGameInstance::CreateGameModeForURL(FURL InURL, UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>return World-&gt;SpawnActor&lt;AGameModeBase&gt;(GameClass, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>根据GameModeClass创建gameMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！赋值给了World中的AuthorityGameMode对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！通过World::SpawnActor创建的，默认也就存入到了主Level的Actors里面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这里只看切换场景时的触发，默认启动时创建不看了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,12 +680,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6CFB86-7AE1-406A-BD4B-08E384851E3D}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -653,14 +796,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F01041-7A0D-42A0-A247-B487F9C258EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -668,12 +888,91 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A16BA2-B93F-44BB-8A91-77A8452E8BFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -702,12 +1001,91 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18CD9F4-407F-44D5-A4C2-BE146F7EC644}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ue_gamemode.xlsx
+++ b/doc/ue_gamemode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E78DAF-B8F2-45FF-84E1-F916318E424F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429A852-4B35-4CB0-B2EE-F360187168E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="非编辑器-独立模式" sheetId="5" r:id="rId5"/>
     <sheet name="非编辑器-客户端模式" sheetId="6" r:id="rId6"/>
     <sheet name="非编辑器-DS模式" sheetId="7" r:id="rId7"/>
+    <sheet name="关于gamemode的状态" sheetId="8" r:id="rId8"/>
+    <sheet name="GameSession" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="162">
   <si>
     <t>配置了游戏内相关的各种类信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +155,469 @@
   </si>
   <si>
     <t>！！！这里只看切换场景时的触发，默认启动时创建不看了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS()</t>
+  </si>
+  <si>
+    <t>GameMode类里面有分状态，在不同的状态下进行不同的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** What match state we are currently in */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient)</t>
+  </si>
+  <si>
+    <t>FName MatchState;</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void SetMatchState(FName NewState);</t>
+  </si>
+  <si>
+    <t>virtual void OnMatchStateSet();</t>
+  </si>
+  <si>
+    <t>virtual void HandleMatchIsWaitingToStart();</t>
+  </si>
+  <si>
+    <t>virtual void HandleMatchHasStarted();</t>
+  </si>
+  <si>
+    <t>virtual void HandleMatchHasEnded();</t>
+  </si>
+  <si>
+    <t>virtual void HandleLeavingMap();</t>
+  </si>
+  <si>
+    <t>virtual void HandleMatchAborted();</t>
+  </si>
+  <si>
+    <t>namespace MatchState</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>const FName WaitingToStart = FName(TEXT("WaitingToStart"));</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>状态信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class ENGINE_API </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGameMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : public AGameModeBase</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为MatchState::EnteringMap;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！！只有在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FName EnteringMap = FName(TEXT("EnteringMap"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnteringMap 2 WaitingToStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FName InProgress = FName(TEXT("InProgress"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitingToStart 2 InProgress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FName WaitingPostMatch = FName(TEXT("WaitingPostMatch"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InProgress 2 WaitingPostMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FName LeavingMap = FName(TEXT("LeavingMap"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FName Aborted = FName(TEXT("Aborted"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;BeginPlay();</t>
+  </si>
+  <si>
+    <t>void UWorld::BeginPlay()</t>
+  </si>
+  <si>
+    <t>AGameModeBase* const GameMode = GetAuthGameMode();</t>
+  </si>
+  <si>
+    <t>if (GameMode)</t>
+  </si>
+  <si>
+    <t>GameMode-&gt;StartPlay();</t>
+  </si>
+  <si>
+    <t>if (GetAISystem())</t>
+  </si>
+  <si>
+    <t>GetAISystem()-&gt;StartPlay();</t>
+  </si>
+  <si>
+    <t>OnWorldBeginPlay.Broadcast();</t>
+  </si>
+  <si>
+    <t>！！！注意这，在World的beginplayer里面调用的Mode的StartPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameMode::StartPlay()</t>
+  </si>
+  <si>
+    <t>if (MatchState == MatchState::EnteringMap)</t>
+  </si>
+  <si>
+    <t>SetMatchState(MatchState::WaitingToStart);</t>
+  </si>
+  <si>
+    <t>！！！如果当前的Enteringmap，则切换到WatingToStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (MatchState == MatchState::WaitingToStart &amp;&amp; ReadyToStartMatch())</t>
+  </si>
+  <si>
+    <t>StartMatch();</t>
+  </si>
+  <si>
+    <t>！！！开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameMode::StartMatch()</t>
+  </si>
+  <si>
+    <t>//Let the game session override the StartMatch function, in case it wants to wait for arbitration</t>
+  </si>
+  <si>
+    <t>if (GameSession-&gt;HandleStartMatchRequest())</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>！！！GameSession是啥意思？？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetMatchState(MatchState::InProgress);</t>
+  </si>
+  <si>
+    <t>！！！设置到运行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// We are entering this map, actors are not yet ticking</t>
+  </si>
+  <si>
+    <t>// Actors are ticking, but the match has not yet started</t>
+  </si>
+  <si>
+    <t>// Normal gameplay is occurring. Specific games will have their own state machine inside this state</t>
+  </si>
+  <si>
+    <t>// Match has ended so we aren't accepting new players, but actors are still ticking</t>
+  </si>
+  <si>
+    <t>// We are transitioning out of the map to another location</t>
+  </si>
+  <si>
+    <t>// Match has failed due to network issues or other problems, cannot continue</t>
+  </si>
+  <si>
+    <t>匹配结束了，不接受新玩家，但可以继续玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态迁移流程(这部分和蓝图结合，可以在蓝图中编辑条件判断的函数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameMode::Tick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>if (GetMatchState() == MatchState::WaitingToStart)</t>
+  </si>
+  <si>
+    <t>// Check to see if we should start the match</t>
+  </si>
+  <si>
+    <t>if (ReadyToStartMatch())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogGameMode, Log, TEXT("GameMode returned ReadyToStartMatch"));</t>
+  </si>
+  <si>
+    <t>if (GetMatchState() == MatchState::InProgress)</t>
+  </si>
+  <si>
+    <t>if (ReadyToEndMatch())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogGameMode, Log, TEXT("GameMode returned ReadyToEndMatch"));</t>
+  </si>
+  <si>
+    <t>EndMatch();</t>
+  </si>
+  <si>
+    <t>！！！是否结束匹配？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！在TICK里面不断判断条件进行判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 LeavingMap </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEngine::TickWorldTravel(FWorldContext&amp; Context, float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>切换场景时触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Aborted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGameModeBase* const GameMode = Context.World()-&gt;GetAuthGameMode();</t>
+  </si>
+  <si>
+    <t>GameMode-&gt;StartToLeaveMap();</t>
+  </si>
+  <si>
+    <t>void AGameMode::StartToLeaveMap()</t>
+  </si>
+  <si>
+    <t>SetMatchState(MatchState::LeavingMap);</t>
+  </si>
+  <si>
+    <t>！！！设置离开地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameMode::HandleDisconnect(UWorld* InWorld, UNetDriver* NetDriver)</t>
+  </si>
+  <si>
+    <t>AbortMatch();</t>
+  </si>
+  <si>
+    <t>void AGameMode::AbortMatch()</t>
+  </si>
+  <si>
+    <t>SetMatchState(MatchState::Aborted);</t>
+  </si>
+  <si>
+    <t>！！！设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态变化回调处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameMode::SetMatchState(FName NewState)</t>
+  </si>
+  <si>
+    <t>MatchState = NewState;</t>
+  </si>
+  <si>
+    <t>设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnMatchStateSet();</t>
+  </si>
+  <si>
+    <t>回调StateSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGameState* FullGameState = GetGameState&lt;AGameState&gt;();</t>
+  </si>
+  <si>
+    <t>if (FullGameState)</t>
+  </si>
+  <si>
+    <t>FullGameState-&gt;SetMatchState(NewState);</t>
+  </si>
+  <si>
+    <t>通知GameState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2_OnSetMatchState(NewState);</t>
+  </si>
+  <si>
+    <t>蓝图回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameMode::OnMatchStateSet()</t>
+  </si>
+  <si>
+    <t>FGameModeEvents::OnGameModeMatchStateSetEvent().Broadcast(MatchState);</t>
+  </si>
+  <si>
+    <t>// Call change callbacks</t>
+  </si>
+  <si>
+    <t>if (MatchState == MatchState::WaitingToStart)</t>
+  </si>
+  <si>
+    <t>HandleMatchIsWaitingToStart();</t>
+  </si>
+  <si>
+    <t>else if (MatchState == MatchState::InProgress)</t>
+  </si>
+  <si>
+    <t>HandleMatchHasStarted();</t>
+  </si>
+  <si>
+    <t>else if (MatchState == MatchState::WaitingPostMatch)</t>
+  </si>
+  <si>
+    <t>HandleMatchHasEnded();</t>
+  </si>
+  <si>
+    <t>else if (MatchState == MatchState::LeavingMap)</t>
+  </si>
+  <si>
+    <t>HandleLeavingMap();</t>
+  </si>
+  <si>
+    <t>else if (MatchState == MatchState::Aborted)</t>
+  </si>
+  <si>
+    <t>HandleMatchAborted();</t>
+  </si>
+  <si>
+    <t>GameMode的OnMatchStateSet函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！在这个里面创建PlayerController对应的Pawn对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！在这个里面阻塞调用GEngine-&gt;BlockTillLevelStreamingCompleted(GetWorld());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameModeBase和GameMode最大的不同就是：后者有状态管理，前者啥都没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController对应的PAWN不是在PostLogin就触发的，而是等状态切换到InProcess触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续切换的InProcess之后，才会调用Setting的beginPlayer之类的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后者在进入Inprocess后，会阻塞加载周围模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！就看场景默认挂在那个GameMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameSession和GameMode紧密结合，gameMode的处理函数里面大量回调GameSession的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以将关键函数在GameSession重写？？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！应该不好办，为了GameMode里面调用GameSession处理之后，还会继续走剩下的逻辑，而这个GameSession就不好办了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！gameModeBase和GameMode会导致PlayerController上面创建PAWN的时机不一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F01041-7A0D-42A0-A247-B487F9C258EF}">
   <dimension ref="A5:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1089,4 +1554,818 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7435FB-2D81-48CD-A4A1-A50451F18EB6}">
+  <dimension ref="A1:V136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>101</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>106</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>117</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B98" s="1">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>123</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K110" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+      <c r="K112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+      <c r="L114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="L116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="M118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="L119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>48</v>
+      </c>
+      <c r="L120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>133</v>
+      </c>
+      <c r="L121" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>50</v>
+      </c>
+      <c r="M122" t="s">
+        <v>143</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L123" t="s">
+        <v>50</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>135</v>
+      </c>
+      <c r="L124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="M126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="M130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L132" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="M134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFFB01F-EBDA-42C1-88DD-E4C52512E3F4}">
+  <dimension ref="B2:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>